--- a/bom/Option_XYHT_CFX_MGN9.xlsx
+++ b/bom/Option_XYHT_CFX_MGN9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BCF21-9F89-4BC6-A642-23FE2F18C4FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0F7029-95EB-4073-8668-D9565B7E8B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>MGN9_250MM v1</t>
   </si>
   <si>
     <t>MGN9H Rail Assy with Block</t>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>https://www.thingiverse.com/thing:4880808</t>
+  </si>
+  <si>
+    <t>MGN9</t>
   </si>
 </sst>
 </file>
@@ -520,12 +520,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -615,17 +609,23 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-      </border>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,15 +821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:colOff>1349375</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1256344</xdr:rowOff>
+      <xdr:rowOff>1265869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,7 +852,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="2422526"/>
+          <a:off x="3676650" y="2451101"/>
           <a:ext cx="1108075" cy="1056318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1482,24 +1482,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D9BF794-7CA4-411D-A3EB-5B635616655D}" name="Table2" displayName="Table2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D9BF794-7CA4-411D-A3EB-5B635616655D}" name="Table2" displayName="Table2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:L20" xr:uid="{D2472A76-2218-4898-9605-1AC4AC5F9E8A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
     <sortCondition ref="B3:B20"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{50D64D58-CE21-494C-833A-C9E4259CA7F3}" name="SubAssy" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B7EB1FE9-6934-4AB9-B34B-9028AFD3BD3D}" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2059D56A-4C67-41B8-85F8-C653A246A159}" name="Item" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BD9228E0-D25C-468E-B00E-81D7FB265BB7}" name="Thumbnail" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F34D7813-CF56-4938-A78B-D3B7B530EF4A}" name="Part Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{71DF42ED-EAC2-4DFA-943A-6CA02C9696FC}" name="Part Description" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{526715DC-4D0B-4E13-B0C0-C88B253C7C7F}" name="Make/Buy" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{6E63C229-D7DB-44E0-9FDA-842A64E0C5A1}" name="Included in _x000a_HDWKit_XYHT" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{A674AB98-00BB-4063-833F-E56E30455E6A}" name="QTY" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{AEAE4F03-B715-4431-82C7-14490B17F034}" name="Comment" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{7BC30830-1977-4C39-A16D-B5A157B15990}" name="Vendor" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{09D0383F-0FB8-45C6-95AE-BF812C7E33A3}" name="Vendor URL" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{50D64D58-CE21-494C-833A-C9E4259CA7F3}" name="SubAssy" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B7EB1FE9-6934-4AB9-B34B-9028AFD3BD3D}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2059D56A-4C67-41B8-85F8-C653A246A159}" name="Item" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BD9228E0-D25C-468E-B00E-81D7FB265BB7}" name="Thumbnail" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F34D7813-CF56-4938-A78B-D3B7B530EF4A}" name="Part Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{71DF42ED-EAC2-4DFA-943A-6CA02C9696FC}" name="Part Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{526715DC-4D0B-4E13-B0C0-C88B253C7C7F}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{6E63C229-D7DB-44E0-9FDA-842A64E0C5A1}" name="Included in _x000a_HDWKit_XYHT" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{A674AB98-00BB-4063-833F-E56E30455E6A}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{AEAE4F03-B715-4431-82C7-14490B17F034}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7BC30830-1977-4C39-A16D-B5A157B15990}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{09D0383F-0FB8-45C6-95AE-BF812C7E33A3}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1828,36 +1828,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="40.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="36.26953125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="27.1796875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="39.90625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="9"/>
+    <col min="4" max="4" width="21.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1866,19 +1866,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -1887,12 +1887,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>7</v>
@@ -1910,18 +1910,18 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -1930,10 +1930,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>7</v>
@@ -1942,25 +1942,25 @@
         <v>1</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>7</v>
@@ -1969,27 +1969,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>7</v>
@@ -1998,18 +1998,18 @@
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>17</v>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -2052,15 +2052,15 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
@@ -2076,21 +2076,21 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>7</v>
@@ -2100,21 +2100,21 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>7</v>
@@ -2124,21 +2124,21 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>7</v>
@@ -2148,21 +2148,21 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>7</v>
@@ -2172,21 +2172,21 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>7</v>
@@ -2196,21 +2196,21 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>7</v>
@@ -2220,21 +2220,21 @@
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>7</v>
@@ -2244,124 +2244,124 @@
       </c>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="10">
         <v>2</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="10">
         <v>1</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="10">
         <v>2</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="10">
         <v>1</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
